--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.09836499999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.295095</v>
+      </c>
+      <c r="I2">
+        <v>0.001274112831990382</v>
+      </c>
+      <c r="J2">
+        <v>0.001274112831990381</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.01596066666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.047882</v>
-      </c>
-      <c r="I2">
-        <v>0.0002563172647803435</v>
-      </c>
-      <c r="J2">
-        <v>0.0002563172647803435</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.1093776666666667</v>
+        <v>0.041215</v>
       </c>
       <c r="N2">
-        <v>0.328133</v>
+        <v>0.123645</v>
       </c>
       <c r="O2">
-        <v>0.02919881906614821</v>
+        <v>0.01018270982542349</v>
       </c>
       <c r="P2">
-        <v>0.02919881906614821</v>
+        <v>0.0101827098254235</v>
       </c>
       <c r="Q2">
-        <v>0.001745740478444445</v>
+        <v>0.004054113475</v>
       </c>
       <c r="R2">
-        <v>0.015711664306</v>
+        <v>0.036487021275</v>
       </c>
       <c r="S2">
-        <v>7.484161437851254E-06</v>
+        <v>1.297392125300661E-05</v>
       </c>
       <c r="T2">
-        <v>7.484161437851254E-06</v>
+        <v>1.297392125300661E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.01596066666666667</v>
+        <v>0.09836499999999999</v>
       </c>
       <c r="H3">
-        <v>0.047882</v>
+        <v>0.295095</v>
       </c>
       <c r="I3">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990382</v>
       </c>
       <c r="J3">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990381</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.961996</v>
       </c>
       <c r="O3">
-        <v>0.2635723480377004</v>
+        <v>0.243933404278904</v>
       </c>
       <c r="P3">
-        <v>0.2635723480377004</v>
+        <v>0.2439334042789041</v>
       </c>
       <c r="Q3">
-        <v>0.01575847694133333</v>
+        <v>0.09711891217999999</v>
       </c>
       <c r="R3">
-        <v>0.141826292472</v>
+        <v>0.87407020962</v>
       </c>
       <c r="S3">
-        <v>6.755814332075609E-05</v>
+        <v>0.000310798680542849</v>
       </c>
       <c r="T3">
-        <v>6.755814332075609E-05</v>
+        <v>0.0003107986805428491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.01596066666666667</v>
+        <v>0.09836499999999999</v>
       </c>
       <c r="H4">
-        <v>0.047882</v>
+        <v>0.295095</v>
       </c>
       <c r="I4">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990382</v>
       </c>
       <c r="J4">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990381</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5540906666666666</v>
+        <v>0.759735</v>
       </c>
       <c r="N4">
-        <v>1.662272</v>
+        <v>2.279205</v>
       </c>
       <c r="O4">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418444</v>
       </c>
       <c r="P4">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418445</v>
       </c>
       <c r="Q4">
-        <v>0.008843656433777778</v>
+        <v>0.07473133327500001</v>
       </c>
       <c r="R4">
-        <v>0.079592907904</v>
+        <v>0.6725819994750001</v>
       </c>
       <c r="S4">
-        <v>3.791362649175754E-05</v>
+        <v>0.0002391542414934606</v>
       </c>
       <c r="T4">
-        <v>3.791362649175754E-05</v>
+        <v>0.0002391542414934606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.01596066666666667</v>
+        <v>0.09836499999999999</v>
       </c>
       <c r="H5">
-        <v>0.047882</v>
+        <v>0.295095</v>
       </c>
       <c r="I5">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990382</v>
       </c>
       <c r="J5">
-        <v>0.0002563172647803435</v>
+        <v>0.001274112831990381</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.095161666666666</v>
+        <v>2.259265333333333</v>
       </c>
       <c r="N5">
-        <v>6.285485</v>
+        <v>6.777796</v>
       </c>
       <c r="O5">
-        <v>0.5593120449878206</v>
+        <v>0.5581813249538279</v>
       </c>
       <c r="P5">
-        <v>0.5593120449878206</v>
+        <v>0.558181324953828</v>
       </c>
       <c r="Q5">
-        <v>0.03344017697444444</v>
+        <v>0.2222326345133333</v>
       </c>
       <c r="R5">
-        <v>0.30096159277</v>
+        <v>2.00009371062</v>
       </c>
       <c r="S5">
-        <v>0.0001433613335299786</v>
+        <v>0.0007111859887010651</v>
       </c>
       <c r="T5">
-        <v>0.0001433613335299786</v>
+        <v>0.0007111859887010651</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5969289999999999</v>
+        <v>0.03342533333333333</v>
       </c>
       <c r="H6">
-        <v>1.790787</v>
+        <v>0.100276</v>
       </c>
       <c r="I6">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629527</v>
       </c>
       <c r="J6">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629526</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1093776666666667</v>
+        <v>0.041215</v>
       </c>
       <c r="N6">
-        <v>0.328133</v>
+        <v>0.123645</v>
       </c>
       <c r="O6">
-        <v>0.02919881906614821</v>
+        <v>0.01018270982542349</v>
       </c>
       <c r="P6">
-        <v>0.02919881906614821</v>
+        <v>0.0101827098254235</v>
       </c>
       <c r="Q6">
-        <v>0.06529070118566666</v>
+        <v>0.001377625113333334</v>
       </c>
       <c r="R6">
-        <v>0.587616310671</v>
+        <v>0.01239862602</v>
       </c>
       <c r="S6">
-        <v>0.0002799076690364924</v>
+        <v>4.408657983247737E-06</v>
       </c>
       <c r="T6">
-        <v>0.0002799076690364924</v>
+        <v>4.408657983247737E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.5969289999999999</v>
+        <v>0.03342533333333333</v>
       </c>
       <c r="H7">
-        <v>1.790787</v>
+        <v>0.100276</v>
       </c>
       <c r="I7">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629527</v>
       </c>
       <c r="J7">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>2.961996</v>
       </c>
       <c r="O7">
-        <v>0.2635723480377004</v>
+        <v>0.243933404278904</v>
       </c>
       <c r="P7">
-        <v>0.2635723480377004</v>
+        <v>0.2439334042789041</v>
       </c>
       <c r="Q7">
-        <v>0.5893671034279999</v>
+        <v>0.03300190121066666</v>
       </c>
       <c r="R7">
-        <v>5.304303930852</v>
+        <v>0.297017110896</v>
       </c>
       <c r="S7">
-        <v>0.002526674842382249</v>
+        <v>0.000105612255341889</v>
       </c>
       <c r="T7">
-        <v>0.002526674842382249</v>
+        <v>0.000105612255341889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5969289999999999</v>
+        <v>0.03342533333333333</v>
       </c>
       <c r="H8">
-        <v>1.790787</v>
+        <v>0.100276</v>
       </c>
       <c r="I8">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629527</v>
       </c>
       <c r="J8">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629526</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5540906666666666</v>
+        <v>0.759735</v>
       </c>
       <c r="N8">
-        <v>1.662272</v>
+        <v>2.279205</v>
       </c>
       <c r="O8">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418444</v>
       </c>
       <c r="P8">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418445</v>
       </c>
       <c r="Q8">
-        <v>0.3307527875626666</v>
+        <v>0.02539439562</v>
       </c>
       <c r="R8">
-        <v>2.976775088064</v>
+        <v>0.22854956058</v>
       </c>
       <c r="S8">
-        <v>0.001417969789154484</v>
+        <v>8.126681482233943E-05</v>
       </c>
       <c r="T8">
-        <v>0.001417969789154484</v>
+        <v>8.126681482233943E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5969289999999999</v>
+        <v>0.03342533333333333</v>
       </c>
       <c r="H9">
-        <v>1.790787</v>
+        <v>0.100276</v>
       </c>
       <c r="I9">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629527</v>
       </c>
       <c r="J9">
-        <v>0.009586266773405391</v>
+        <v>0.0004329552799629526</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.095161666666666</v>
+        <v>2.259265333333333</v>
       </c>
       <c r="N9">
-        <v>6.285485</v>
+        <v>6.777796</v>
       </c>
       <c r="O9">
-        <v>0.5593120449878206</v>
+        <v>0.5581813249538279</v>
       </c>
       <c r="P9">
-        <v>0.5593120449878206</v>
+        <v>0.558181324953828</v>
       </c>
       <c r="Q9">
-        <v>1.250662758521666</v>
+        <v>0.07551669685511112</v>
       </c>
       <c r="R9">
-        <v>11.255964826695</v>
+        <v>0.6796502716960001</v>
       </c>
       <c r="S9">
-        <v>0.005361714472832166</v>
+        <v>0.0002416675518154764</v>
       </c>
       <c r="T9">
-        <v>0.005361714472832166</v>
+        <v>0.0002416675518154764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.65629333333334</v>
+        <v>77.07094833333333</v>
       </c>
       <c r="H10">
-        <v>184.96888</v>
+        <v>231.212845</v>
       </c>
       <c r="I10">
-        <v>0.9901574159618143</v>
+        <v>0.9982929318880467</v>
       </c>
       <c r="J10">
-        <v>0.9901574159618142</v>
+        <v>0.9982929318880466</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1093776666666667</v>
+        <v>0.041215</v>
       </c>
       <c r="N10">
-        <v>0.328133</v>
+        <v>0.123645</v>
       </c>
       <c r="O10">
-        <v>0.02919881906614821</v>
+        <v>0.01018270982542349</v>
       </c>
       <c r="P10">
-        <v>0.02919881906614821</v>
+        <v>0.0101827098254235</v>
       </c>
       <c r="Q10">
-        <v>6.743821500115556</v>
+        <v>3.176479135558333</v>
       </c>
       <c r="R10">
-        <v>60.69439350104</v>
+        <v>28.588312220025</v>
       </c>
       <c r="S10">
-        <v>0.02891142723567387</v>
+        <v>0.01016532724618724</v>
       </c>
       <c r="T10">
-        <v>0.02891142723567386</v>
+        <v>0.01016532724618724</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.65629333333334</v>
+        <v>77.07094833333333</v>
       </c>
       <c r="H11">
-        <v>184.96888</v>
+        <v>231.212845</v>
       </c>
       <c r="I11">
-        <v>0.9901574159618143</v>
+        <v>0.9982929318880467</v>
       </c>
       <c r="J11">
-        <v>0.9901574159618142</v>
+        <v>0.9982929318880466</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.961996</v>
       </c>
       <c r="O11">
-        <v>0.2635723480377004</v>
+        <v>0.243933404278904</v>
       </c>
       <c r="P11">
-        <v>0.2635723480377004</v>
+        <v>0.2439334042789041</v>
       </c>
       <c r="Q11">
-        <v>60.87523140938667</v>
+        <v>76.09461355984666</v>
       </c>
       <c r="R11">
-        <v>547.87708268448</v>
+        <v>684.85152203862</v>
       </c>
       <c r="S11">
-        <v>0.2609781150519974</v>
+        <v>0.2435169933430193</v>
       </c>
       <c r="T11">
-        <v>0.2609781150519973</v>
+        <v>0.2435169933430193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.65629333333334</v>
+        <v>77.07094833333333</v>
       </c>
       <c r="H12">
-        <v>184.96888</v>
+        <v>231.212845</v>
       </c>
       <c r="I12">
-        <v>0.9901574159618143</v>
+        <v>0.9982929318880467</v>
       </c>
       <c r="J12">
-        <v>0.9901574159618142</v>
+        <v>0.9982929318880466</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5540906666666666</v>
+        <v>0.759735</v>
       </c>
       <c r="N12">
-        <v>1.662272</v>
+        <v>2.279205</v>
       </c>
       <c r="O12">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418444</v>
       </c>
       <c r="P12">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418445</v>
       </c>
       <c r="Q12">
-        <v>34.16317667726222</v>
+        <v>58.55349693202501</v>
       </c>
       <c r="R12">
-        <v>307.46859009536</v>
+        <v>526.981472388225</v>
       </c>
       <c r="S12">
-        <v>0.1464609044926846</v>
+        <v>0.1873821398855286</v>
       </c>
       <c r="T12">
-        <v>0.1464609044926845</v>
+        <v>0.1873821398855286</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.65629333333334</v>
+        <v>77.07094833333333</v>
       </c>
       <c r="H13">
-        <v>184.96888</v>
+        <v>231.212845</v>
       </c>
       <c r="I13">
-        <v>0.9901574159618143</v>
+        <v>0.9982929318880467</v>
       </c>
       <c r="J13">
-        <v>0.9901574159618142</v>
+        <v>0.9982929318880466</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.095161666666666</v>
+        <v>2.259265333333333</v>
       </c>
       <c r="N13">
-        <v>6.285485</v>
+        <v>6.777796</v>
       </c>
       <c r="O13">
-        <v>0.5593120449878206</v>
+        <v>0.5581813249538279</v>
       </c>
       <c r="P13">
-        <v>0.5593120449878206</v>
+        <v>0.558181324953828</v>
       </c>
       <c r="Q13">
-        <v>129.1799023007555</v>
+        <v>174.1237217766244</v>
       </c>
       <c r="R13">
-        <v>1162.6191207068</v>
+        <v>1567.11349598962</v>
       </c>
       <c r="S13">
-        <v>0.5538069691814584</v>
+        <v>0.5572284714133113</v>
       </c>
       <c r="T13">
-        <v>0.5538069691814584</v>
+        <v>0.5572284714133114</v>
       </c>
     </row>
   </sheetData>
